--- a/data/financial_statements/soci/ABBV.xlsx
+++ b/data/financial_statements/soci/ABBV.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -125,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -180,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -490,129 +601,129 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
         <v>14812000000</v>
@@ -733,8 +844,8 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
         <v>0.0328</v>
@@ -855,23 +966,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>4207000000</v>
+        <v>5022000000</v>
       </c>
       <c r="C4">
-        <v>4162000000</v>
+        <v>4170000000</v>
       </c>
       <c r="D4">
-        <v>4029000000</v>
+        <v>4052000000</v>
       </c>
       <c r="E4">
-        <v>4252000000</v>
+        <v>4320000000</v>
       </c>
       <c r="F4">
-        <v>4316000000</v>
+        <v>4390000000</v>
       </c>
       <c r="G4">
         <v>4523000000</v>
@@ -977,23 +1088,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>10605000000</v>
+        <v>9790000000</v>
       </c>
       <c r="C5">
-        <v>10421000000</v>
+        <v>10413000000</v>
       </c>
       <c r="D5">
-        <v>9509000000</v>
+        <v>9486000000</v>
       </c>
       <c r="E5">
-        <v>10634000000</v>
+        <v>10566000000</v>
       </c>
       <c r="F5">
-        <v>10026000000</v>
+        <v>9952000000</v>
       </c>
       <c r="G5">
         <v>9436000000</v>
@@ -1099,23 +1210,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>1610000000</v>
+        <v>1614000000</v>
       </c>
       <c r="C6">
-        <v>1608000000</v>
+        <v>1609000000</v>
       </c>
       <c r="D6">
-        <v>1488000000</v>
+        <v>1497000000</v>
       </c>
       <c r="E6">
-        <v>1811000000</v>
+        <v>1989000000</v>
       </c>
       <c r="F6">
-        <v>1655000000</v>
+        <v>1661000000</v>
       </c>
       <c r="G6">
         <v>1767000000</v>
@@ -1221,8 +1332,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>3304000000</v>
@@ -1237,7 +1348,7 @@
         <v>3260000000</v>
       </c>
       <c r="F7">
-        <v>2964000000</v>
+        <v>3083000000</v>
       </c>
       <c r="G7">
         <v>3164000000</v>
@@ -1343,8 +1454,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>4603000000</v>
@@ -1465,8 +1576,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>595000000</v>
@@ -1506,23 +1617,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>63000000</v>
+        <v>497000000</v>
       </c>
       <c r="C10">
-        <v>24000000</v>
+        <v>532000000</v>
       </c>
       <c r="D10">
-        <v>9000000</v>
+        <v>539000000</v>
       </c>
       <c r="E10">
-        <v>9000000</v>
+        <v>571000000</v>
       </c>
       <c r="F10">
-        <v>11000000</v>
+        <v>585000000</v>
       </c>
       <c r="G10">
         <v>606000000</v>
@@ -1628,23 +1739,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>869000000</v>
+        <v>-203000000</v>
       </c>
       <c r="C11">
-        <v>4593000000</v>
+        <v>-2112000000</v>
       </c>
       <c r="D11">
-        <v>-325000000</v>
+        <v>212000000</v>
       </c>
       <c r="E11">
-        <v>523000000</v>
+        <v>-803000000</v>
       </c>
       <c r="F11">
-        <v>265000000</v>
+        <v>-618000000</v>
       </c>
       <c r="G11">
         <v>-3278000000</v>
@@ -1750,8 +1861,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>4400000000</v>
@@ -1872,8 +1983,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>448000000</v>
@@ -1994,8 +2105,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>3952000000</v>
@@ -2116,8 +2227,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>3000000</v>
@@ -2151,23 +2262,23 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>3931000000</v>
+        <v>3949000000</v>
       </c>
       <c r="C16">
-        <v>913000000</v>
+        <v>924000000</v>
       </c>
       <c r="D16">
-        <v>4468000000</v>
+        <v>4490000000</v>
       </c>
       <c r="E16">
-        <v>4023000000</v>
+        <v>4044000000</v>
       </c>
       <c r="F16">
-        <v>3158000000</v>
+        <v>3179000000</v>
       </c>
       <c r="G16">
         <v>766000000</v>
@@ -2273,8 +2384,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>2.21</v>
@@ -2395,8 +2506,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>2.21</v>
@@ -2517,8 +2628,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>1771000000</v>
@@ -2530,7 +2641,7 @@
         <v>1771000000</v>
       </c>
       <c r="E19">
-        <v>1768000000</v>
+        <v>1770000000</v>
       </c>
       <c r="F19">
         <v>1770000000</v>
@@ -2639,8 +2750,8 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
         <v>1776000000</v>
@@ -2652,7 +2763,7 @@
         <v>1778000000</v>
       </c>
       <c r="E20">
-        <v>1778000000</v>
+        <v>1777000000</v>
       </c>
       <c r="F20">
         <v>1777000000</v>
@@ -2761,23 +2872,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>0.716</v>
+        <v>0.661</v>
       </c>
       <c r="C21">
-        <v>0.7146</v>
+        <v>0.7141</v>
       </c>
       <c r="D21">
-        <v>0.7024</v>
+        <v>0.7007</v>
       </c>
       <c r="E21">
-        <v>0.7144</v>
+        <v>0.7098</v>
       </c>
       <c r="F21">
-        <v>0.6991000000000001</v>
+        <v>0.6939</v>
       </c>
       <c r="G21">
         <v>0.676</v>
@@ -2883,8 +2994,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>0.3108</v>
@@ -3005,8 +3116,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>0.2971</v>
@@ -3127,23 +3238,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>0.2654</v>
+        <v>0.2666</v>
       </c>
       <c r="C24">
-        <v>0.0626</v>
+        <v>0.0634</v>
       </c>
       <c r="D24">
-        <v>0.33</v>
+        <v>0.3317</v>
       </c>
       <c r="E24">
-        <v>0.2703</v>
+        <v>0.2717</v>
       </c>
       <c r="F24">
-        <v>0.2202</v>
+        <v>0.2217</v>
       </c>
       <c r="G24">
         <v>0.0549</v>
@@ -3249,23 +3360,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>8010000000</v>
+        <v>6808000000</v>
       </c>
       <c r="C25">
-        <v>7616000000</v>
+        <v>5347000000</v>
       </c>
       <c r="D25">
-        <v>7074000000</v>
+        <v>6770000000</v>
       </c>
       <c r="E25">
-        <v>7292000000</v>
+        <v>7053000000</v>
       </c>
       <c r="F25">
-        <v>7530000000</v>
+        <v>6433000000</v>
       </c>
       <c r="G25">
         <v>6641000000</v>
@@ -3371,8 +3482,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>4603000000</v>
@@ -3493,8 +3604,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>3952000000</v>
@@ -3615,23 +3726,23 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>3934000000</v>
+        <v>3952000000</v>
       </c>
       <c r="C28">
-        <v>917000000</v>
+        <v>928000000</v>
       </c>
       <c r="D28">
-        <v>4471000000</v>
+        <v>4493000000</v>
       </c>
       <c r="E28">
-        <v>4024000000</v>
+        <v>4045000000</v>
       </c>
       <c r="F28">
-        <v>3159000000</v>
+        <v>3180000000</v>
       </c>
       <c r="G28">
         <v>769000000</v>
@@ -3737,8 +3848,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>2.2315</v>
@@ -3859,8 +3970,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>2.2252</v>
@@ -3981,8 +4092,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>2.2315</v>
@@ -4103,8 +4214,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>2.2252</v>
@@ -4225,8 +4336,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>1776000000</v>
@@ -4347,23 +4458,23 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
-        <v>0.5407999999999999</v>
+        <v>0.4596</v>
       </c>
       <c r="C34">
-        <v>0.5223</v>
+        <v>0.3667</v>
       </c>
       <c r="D34">
-        <v>0.5225</v>
+        <v>0.5001</v>
       </c>
       <c r="E34">
-        <v>0.4899</v>
+        <v>0.4738</v>
       </c>
       <c r="F34">
-        <v>0.525</v>
+        <v>0.4485</v>
       </c>
       <c r="G34">
         <v>0.4758</v>
@@ -4469,8 +4580,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>0.5132</v>
